--- a/data/nzd0440/nzd0440.xlsx
+++ b/data/nzd0440/nzd0440.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I642"/>
+  <dimension ref="A1:I647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19505,9 +19505,7 @@
           <t>2024-11-18 22:13:58+00:00</t>
         </is>
       </c>
-      <c r="B642" t="n">
-        <v>337.86</v>
-      </c>
+      <c r="B642" t="inlineStr"/>
       <c r="C642" t="n">
         <v>319.67</v>
       </c>
@@ -19529,6 +19527,165 @@
       <c r="I642" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr"/>
+      <c r="C643" t="n">
+        <v>313.4</v>
+      </c>
+      <c r="D643" t="n">
+        <v>332.3427272727272</v>
+      </c>
+      <c r="E643" t="n">
+        <v>296.65</v>
+      </c>
+      <c r="F643" t="n">
+        <v>305.8</v>
+      </c>
+      <c r="G643" t="n">
+        <v>306.7828571428572</v>
+      </c>
+      <c r="H643" t="n">
+        <v>305.36</v>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:13:58+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr"/>
+      <c r="C644" t="n">
+        <v>315.7</v>
+      </c>
+      <c r="D644" t="n">
+        <v>328.5772727272728</v>
+      </c>
+      <c r="E644" t="n">
+        <v>300.92</v>
+      </c>
+      <c r="F644" t="n">
+        <v>313.3</v>
+      </c>
+      <c r="G644" t="n">
+        <v>312.4928571428572</v>
+      </c>
+      <c r="H644" t="n">
+        <v>320.36</v>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:07:40+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr"/>
+      <c r="C645" t="n">
+        <v>337.08</v>
+      </c>
+      <c r="D645" t="n">
+        <v>327.6281818181818</v>
+      </c>
+      <c r="E645" t="n">
+        <v>308.28</v>
+      </c>
+      <c r="F645" t="n">
+        <v>317.2</v>
+      </c>
+      <c r="G645" t="n">
+        <v>320.2871428571428</v>
+      </c>
+      <c r="H645" t="n">
+        <v>322.67</v>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:13:50+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>461.52</v>
+      </c>
+      <c r="C646" t="n">
+        <v>305.7</v>
+      </c>
+      <c r="D646" t="n">
+        <v>326.3263636363636</v>
+      </c>
+      <c r="E646" t="n">
+        <v>286.33</v>
+      </c>
+      <c r="F646" t="n">
+        <v>297.4</v>
+      </c>
+      <c r="G646" t="n">
+        <v>294.5642857142857</v>
+      </c>
+      <c r="H646" t="n">
+        <v>296.75</v>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>449.38</v>
+      </c>
+      <c r="C647" t="n">
+        <v>321.41</v>
+      </c>
+      <c r="D647" t="n">
+        <v>334.0827272727273</v>
+      </c>
+      <c r="E647" t="n">
+        <v>299.96</v>
+      </c>
+      <c r="F647" t="n">
+        <v>296.49</v>
+      </c>
+      <c r="G647" t="n">
+        <v>300.3071428571428</v>
+      </c>
+      <c r="H647" t="n">
+        <v>299.28</v>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -19543,7 +19700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B687"/>
+  <dimension ref="A1:B692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26421,6 +26578,56 @@
       </c>
       <c r="B687" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>-0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -26589,28 +26796,28 @@
         <v>0.0224</v>
       </c>
       <c r="I2" t="n">
-        <v>2.200504895782962</v>
+        <v>2.270741655332675</v>
       </c>
       <c r="J2" t="n">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K2" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04171351636070608</v>
+        <v>0.04486878827821994</v>
       </c>
       <c r="M2" t="n">
-        <v>68.93881822658916</v>
+        <v>68.29260869005439</v>
       </c>
       <c r="N2" t="n">
-        <v>5878.563207003389</v>
+        <v>5822.218968691361</v>
       </c>
       <c r="O2" t="n">
-        <v>76.67178886007153</v>
+        <v>76.30346629538766</v>
       </c>
       <c r="P2" t="n">
-        <v>397.6094628517714</v>
+        <v>396.9352439462116</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -26666,28 +26873,28 @@
         <v>0.0424</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05379118419479247</v>
+        <v>0.0464800684553552</v>
       </c>
       <c r="J3" t="n">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K3" t="n">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001243982443361991</v>
+        <v>0.0009388341306615366</v>
       </c>
       <c r="M3" t="n">
-        <v>8.917864186213608</v>
+        <v>8.922019529435323</v>
       </c>
       <c r="N3" t="n">
-        <v>125.0560170847293</v>
+        <v>125.0609920098808</v>
       </c>
       <c r="O3" t="n">
-        <v>11.1828447670854</v>
+        <v>11.18306720045448</v>
       </c>
       <c r="P3" t="n">
-        <v>321.2696086969491</v>
+        <v>321.3397024848246</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -26743,28 +26950,28 @@
         <v>0.0595</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3098120951305722</v>
+        <v>0.2974390371543994</v>
       </c>
       <c r="J4" t="n">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K4" t="n">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05700348511239361</v>
+        <v>0.05360288984031658</v>
       </c>
       <c r="M4" t="n">
-        <v>7.195786771728926</v>
+        <v>7.17959646478818</v>
       </c>
       <c r="N4" t="n">
-        <v>85.90058612509074</v>
+        <v>85.46728955396027</v>
       </c>
       <c r="O4" t="n">
-        <v>9.268256908669004</v>
+        <v>9.244852056899573</v>
       </c>
       <c r="P4" t="n">
-        <v>328.0453426988295</v>
+        <v>328.1639718712024</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -26820,28 +27027,28 @@
         <v>0.0421</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003339040690298393</v>
+        <v>-0.01149817330564436</v>
       </c>
       <c r="J5" t="n">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K5" t="n">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="L5" t="n">
-        <v>5.617173035155076e-06</v>
+        <v>6.72737780508248e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>8.276482080064104</v>
+        <v>8.284342304507975</v>
       </c>
       <c r="N5" t="n">
-        <v>107.0399673054353</v>
+        <v>107.1106817052005</v>
       </c>
       <c r="O5" t="n">
-        <v>10.34601214504581</v>
+        <v>10.34942905213618</v>
       </c>
       <c r="P5" t="n">
-        <v>306.435949441891</v>
+        <v>306.5774462057945</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -26897,28 +27104,28 @@
         <v>0.0413</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04523838550960156</v>
+        <v>0.02756333017311157</v>
       </c>
       <c r="J6" t="n">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K6" t="n">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0009881913948945886</v>
+        <v>0.0003697438772164441</v>
       </c>
       <c r="M6" t="n">
-        <v>8.480112801113897</v>
+        <v>8.490069690946957</v>
       </c>
       <c r="N6" t="n">
-        <v>110.5562833616856</v>
+        <v>110.9686089815039</v>
       </c>
       <c r="O6" t="n">
-        <v>10.51457480650956</v>
+        <v>10.53416389570164</v>
       </c>
       <c r="P6" t="n">
-        <v>314.2667171077655</v>
+        <v>314.4365033231058</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -26974,28 +27181,28 @@
         <v>0.0379</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04088644297278347</v>
+        <v>0.02680032705896637</v>
       </c>
       <c r="J7" t="n">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K7" t="n">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007628415904191721</v>
+        <v>0.0003309790629947296</v>
       </c>
       <c r="M7" t="n">
-        <v>8.566512121309438</v>
+        <v>8.584744319075194</v>
       </c>
       <c r="N7" t="n">
-        <v>117.3859122051321</v>
+        <v>117.5655243770794</v>
       </c>
       <c r="O7" t="n">
-        <v>10.83447793874407</v>
+        <v>10.84276368722843</v>
       </c>
       <c r="P7" t="n">
-        <v>313.3912226394103</v>
+        <v>313.5261904981791</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -27051,28 +27258,28 @@
         <v>0.0316</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03028038113934723</v>
+        <v>0.0198516548749259</v>
       </c>
       <c r="J8" t="n">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="K8" t="n">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000363620861348557</v>
+        <v>0.0001579205648927218</v>
       </c>
       <c r="M8" t="n">
-        <v>9.291229018897912</v>
+        <v>9.314016423477055</v>
       </c>
       <c r="N8" t="n">
-        <v>134.9890932786827</v>
+        <v>135.0803691926182</v>
       </c>
       <c r="O8" t="n">
-        <v>11.61848067858628</v>
+        <v>11.62240806341862</v>
       </c>
       <c r="P8" t="n">
-        <v>313.6647573188414</v>
+        <v>313.7649235239232</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -27109,7 +27316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I642"/>
+  <dimension ref="A1:I647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53042,11 +53249,7 @@
           <t>2024-11-18 22:13:58+00:00</t>
         </is>
       </c>
-      <c r="B642" t="inlineStr">
-        <is>
-          <t>-43.58046335896701,172.77616139230383</t>
-        </is>
-      </c>
+      <c r="B642" t="inlineStr"/>
       <c r="C642" t="inlineStr">
         <is>
           <t>-43.581128087885205,172.776038654824</t>
@@ -53080,6 +53283,229 @@
       <c r="I642" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr"/>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>-43.581134336310065,172.7759614717287</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>-43.581776779629955,172.77629987639182</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>-43.58251834318972,172.77623078495378</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>-43.583120069271295,172.77672594003798</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>-43.583677026440526,172.77729426868788</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>-43.584196157106106,172.7778597801629</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:13:58+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr"/>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>-43.581132044230436,172.7759897845087</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>-43.58178495490972,172.77625461311914</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>-43.58250352002827,172.77627958552526</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>-43.583086600078246,172.7768066260509</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>-43.583645734206215,172.7773503869391</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>-43.58411069750861,172.7780036559645</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:07:40+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr"/>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>-43.5811107375198,172.77625297016226</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>-43.58178701550372,172.77624320441208</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>-43.58247796998658,172.77636370073998</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>-43.58306919607522,172.77684858274236</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>-43.583603019517675,172.77742698959204</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>-43.584097536714324,172.7780258128018</t>
+        </is>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:13:50+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>-43.58034011171047,172.77768361469526</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>-43.581142009742926,172.77586668544978</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>-43.5817898419105,172.7762275556862</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>-43.58255416863639,172.77611284061686</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>-43.58315755469944,172.77663557159755</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>-43.58374398718766,172.77717418357838</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>-43.584245210832314,172.777777195269</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:13:52+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>-43.58035221208836,172.77753417472854</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>-43.58112635386333,172.77606007405336</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>-43.58177300186304,172.77632079234712</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>-43.58250685263782,172.7762686139703</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>-43.58316161561651,172.77662578167644</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>-43.58371251494778,172.77723062487658</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>-43.584230796677446,172.7778014623888</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0440/nzd0440.xlsx
+++ b/data/nzd0440/nzd0440.xlsx
@@ -26641,7 +26641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26732,35 +26732,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -26819,27 +26824,28 @@
       <c r="P2" t="n">
         <v>396.9352439462116</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (172.77200239246676 -43.58079998786414, 172.7829592319467 -43.579912808747046)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>172.7720023924668</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-43.58079998786414</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>172.7829592319467</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-43.57991280874705</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>172.7774808122067</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-43.5803563983056</v>
       </c>
     </row>
@@ -26896,27 +26902,28 @@
       <c r="P3" t="n">
         <v>321.3397024848246</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (172.77210352788697 -43.58144659144879, 172.78306044547364 -43.580559409178484)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>172.772103527887</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-43.58144659144879</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>172.7830604454736</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-43.58055940917848</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>172.7775819866803</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-43.58100300031364</v>
       </c>
     </row>
@@ -26973,27 +26980,28 @@
       <c r="P4" t="n">
         <v>328.1639718712024</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (172.7723048484563 -43.58249826871707, 172.78300367119695 -43.58056574317709)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>172.7723048484563</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-43.58249826871707</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>172.783003671197</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-43.58056574317709</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>172.7776542598266</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-43.58153200594708</v>
       </c>
     </row>
@@ -27050,27 +27058,28 @@
       <c r="P5" t="n">
         <v>306.5774462057945</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (172.77284040108987 -43.58354810247549, 172.78301117580187 -43.58045853116749)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>172.7728404010899</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-43.58354810247549</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>172.7830111758019</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-43.58045853116749</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>172.7779257884459</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-43.58200331682148</v>
       </c>
     </row>
@@ -27127,27 +27136,28 @@
       <c r="P6" t="n">
         <v>314.4365033231058</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (172.77343602633738 -43.5844846710066, 172.7830089082369 -43.58051356223008)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>172.7734360263374</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-43.5844846710066</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>172.7830089082369</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-43.58051356223008</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>172.7782224672872</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-43.58249911661834</v>
       </c>
     </row>
@@ -27204,27 +27214,28 @@
       <c r="P7" t="n">
         <v>313.5261904981791</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (172.77427910142094 -43.58535823262264, 172.7830230615891 -43.58048226952674)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>172.7742791014209</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-43.58535823262264</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>172.7830230615891</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-43.58048226952674</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>172.778651081505</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-43.58292025107469</v>
       </c>
     </row>
@@ -27281,27 +27292,28 @@
       <c r="P8" t="n">
         <v>313.7649235239232</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (172.77493076407308 -43.58593584678641, 172.7834641300167 -43.58086696162799)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>172.7749307640731</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-43.58593584678641</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>172.7834641300167</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-43.58086696162799</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>172.7791974470449</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-43.5834014042072</v>
       </c>
     </row>

--- a/data/nzd0440/nzd0440.xlsx
+++ b/data/nzd0440/nzd0440.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I647"/>
+  <dimension ref="A1:I652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19684,6 +19684,167 @@
         <v>299.28</v>
       </c>
       <c r="I647" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr"/>
+      <c r="C648" t="n">
+        <v>318.83</v>
+      </c>
+      <c r="D648" t="n">
+        <v>337.3718181818182</v>
+      </c>
+      <c r="E648" t="n">
+        <v>309.77</v>
+      </c>
+      <c r="F648" t="n">
+        <v>317.22</v>
+      </c>
+      <c r="G648" t="n">
+        <v>316.1128571428572</v>
+      </c>
+      <c r="H648" t="n">
+        <v>321.2066666666667</v>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>474.79</v>
+      </c>
+      <c r="C649" t="n">
+        <v>327</v>
+      </c>
+      <c r="D649" t="n">
+        <v>333.4045454545454</v>
+      </c>
+      <c r="E649" t="n">
+        <v>319.43</v>
+      </c>
+      <c r="F649" t="n">
+        <v>319.96</v>
+      </c>
+      <c r="G649" t="n">
+        <v>323.38</v>
+      </c>
+      <c r="H649" t="n">
+        <v>313.4666666666667</v>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:28+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="n">
+        <v>318.07</v>
+      </c>
+      <c r="D650" t="n">
+        <v>323.6581818181818</v>
+      </c>
+      <c r="E650" t="n">
+        <v>305.51</v>
+      </c>
+      <c r="F650" t="n">
+        <v>317.46</v>
+      </c>
+      <c r="G650" t="n">
+        <v>318.1942857142857</v>
+      </c>
+      <c r="H650" t="n">
+        <v>323.4233333333333</v>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>450.57</v>
+      </c>
+      <c r="C651" t="n">
+        <v>323.79</v>
+      </c>
+      <c r="D651" t="n">
+        <v>331.1272727272727</v>
+      </c>
+      <c r="E651" t="n">
+        <v>315.88</v>
+      </c>
+      <c r="F651" t="n">
+        <v>322.06</v>
+      </c>
+      <c r="G651" t="n">
+        <v>319.64</v>
+      </c>
+      <c r="H651" t="n">
+        <v>315.84</v>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:07:12+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>450.38</v>
+      </c>
+      <c r="C652" t="n">
+        <v>323.74</v>
+      </c>
+      <c r="D652" t="n">
+        <v>331.1063636363637</v>
+      </c>
+      <c r="E652" t="n">
+        <v>317.64</v>
+      </c>
+      <c r="F652" t="n">
+        <v>322.34</v>
+      </c>
+      <c r="G652" t="n">
+        <v>321.9685714285715</v>
+      </c>
+      <c r="H652" t="n">
+        <v>317.9666666666667</v>
+      </c>
+      <c r="I652" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -19700,7 +19861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B692"/>
+  <dimension ref="A1:B697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26628,6 +26789,56 @@
       </c>
       <c r="B692" t="n">
         <v>-0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>-0.91</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>-0.84</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>-0.79</v>
       </c>
     </row>
   </sheetData>
@@ -26801,28 +27012,28 @@
         <v>0.0224</v>
       </c>
       <c r="I2" t="n">
-        <v>2.270741655332675</v>
+        <v>2.276900000271981</v>
       </c>
       <c r="J2" t="n">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="K2" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04486878827821994</v>
+        <v>0.04595355709683935</v>
       </c>
       <c r="M2" t="n">
-        <v>68.29260869005439</v>
+        <v>67.76973431948696</v>
       </c>
       <c r="N2" t="n">
-        <v>5822.218968691361</v>
+        <v>5772.701577929911</v>
       </c>
       <c r="O2" t="n">
-        <v>76.30346629538766</v>
+        <v>75.97829675591518</v>
       </c>
       <c r="P2" t="n">
-        <v>396.9352439462116</v>
+        <v>396.8752539945446</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26879,28 +27090,28 @@
         <v>0.0424</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0464800684553552</v>
+        <v>0.04604687943486781</v>
       </c>
       <c r="J3" t="n">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="K3" t="n">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0009388341306615366</v>
+        <v>0.0009393276945762752</v>
       </c>
       <c r="M3" t="n">
-        <v>8.922019529435323</v>
+        <v>8.866648115998995</v>
       </c>
       <c r="N3" t="n">
-        <v>125.0609920098808</v>
+        <v>123.9979385354825</v>
       </c>
       <c r="O3" t="n">
-        <v>11.18306720045448</v>
+        <v>11.13543616278602</v>
       </c>
       <c r="P3" t="n">
-        <v>321.3397024848246</v>
+        <v>321.3438496971232</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26957,28 +27168,28 @@
         <v>0.0595</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2974390371543994</v>
+        <v>0.2884827754424092</v>
       </c>
       <c r="J4" t="n">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="K4" t="n">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05360288984031658</v>
+        <v>0.05141649640167101</v>
       </c>
       <c r="M4" t="n">
-        <v>7.17959646478818</v>
+        <v>7.15439480478975</v>
       </c>
       <c r="N4" t="n">
-        <v>85.46728955396027</v>
+        <v>84.98558508525048</v>
       </c>
       <c r="O4" t="n">
-        <v>9.244852056899573</v>
+        <v>9.218762665632003</v>
       </c>
       <c r="P4" t="n">
-        <v>328.1639718712024</v>
+        <v>328.2510914440219</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27035,28 +27246,28 @@
         <v>0.0421</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01149817330564436</v>
+        <v>0.001931285847135107</v>
       </c>
       <c r="J5" t="n">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="K5" t="n">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="L5" t="n">
-        <v>6.72737780508248e-05</v>
+        <v>1.923386324431675e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>8.284342304507975</v>
+        <v>8.274707188055286</v>
       </c>
       <c r="N5" t="n">
-        <v>107.1106817052005</v>
+        <v>106.8578960965911</v>
       </c>
       <c r="O5" t="n">
-        <v>10.34942905213618</v>
+        <v>10.33720929925437</v>
       </c>
       <c r="P5" t="n">
-        <v>306.5774462057945</v>
+        <v>306.4477339426616</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27113,28 +27324,28 @@
         <v>0.0413</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02756333017311157</v>
+        <v>0.03629255342596056</v>
       </c>
       <c r="J6" t="n">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="K6" t="n">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003697438772164441</v>
+        <v>0.0006527634913873204</v>
       </c>
       <c r="M6" t="n">
-        <v>8.490069690946957</v>
+        <v>8.455117814490333</v>
       </c>
       <c r="N6" t="n">
-        <v>110.9686089815039</v>
+        <v>110.1672592571408</v>
       </c>
       <c r="O6" t="n">
-        <v>10.53416389570164</v>
+        <v>10.49605922511591</v>
       </c>
       <c r="P6" t="n">
-        <v>314.4365033231058</v>
+        <v>314.3516773791068</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27191,28 +27402,28 @@
         <v>0.0379</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02680032705896637</v>
+        <v>0.03726743045368146</v>
       </c>
       <c r="J7" t="n">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="K7" t="n">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003309790629947296</v>
+        <v>0.0006510713123425438</v>
       </c>
       <c r="M7" t="n">
-        <v>8.584744319075194</v>
+        <v>8.551429725330017</v>
       </c>
       <c r="N7" t="n">
-        <v>117.5655243770794</v>
+        <v>116.8189882310396</v>
       </c>
       <c r="O7" t="n">
-        <v>10.84276368722843</v>
+        <v>10.80828331563526</v>
       </c>
       <c r="P7" t="n">
-        <v>313.5261904981791</v>
+        <v>313.4247449990274</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27269,28 +27480,28 @@
         <v>0.0316</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0198516548749259</v>
+        <v>0.02748244358443154</v>
       </c>
       <c r="J8" t="n">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="K8" t="n">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001579205648927218</v>
+        <v>0.0003082659285139622</v>
       </c>
       <c r="M8" t="n">
-        <v>9.314016423477055</v>
+        <v>9.264059752149274</v>
       </c>
       <c r="N8" t="n">
-        <v>135.0803691926182</v>
+        <v>134.0854023233285</v>
       </c>
       <c r="O8" t="n">
-        <v>11.62240806341862</v>
+        <v>11.5795251337578</v>
       </c>
       <c r="P8" t="n">
-        <v>313.7649235239232</v>
+        <v>313.6909382579558</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27328,7 +27539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I647"/>
+  <dimension ref="A1:I652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53521,6 +53732,233 @@
         </is>
       </c>
     </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:07:31+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr"/>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>-43.58112892499777,172.7760283145059</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>-43.58176586080725,172.77636032939662</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>-43.58247279748416,172.77638072949082</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>-43.58306910682387,172.77684879790482</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>-43.58362589568247,172.77738596450436</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>-43.584105873783656,172.77801177694207</t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:07:16+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>-43.580326884797,172.77784696457482</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>-43.581120783041705,172.77612888639706</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>-43.58177447428468,172.7763126401517</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>-43.582439262943616,172.77649113058362</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>-43.58305687938677,172.7768782751556</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>-43.5835860698514,172.77745738632592</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>-43.58414997096418,172.77793753709108</t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:13:28+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>-43.581129682384535,172.7760189589798</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>-43.581795634853414,172.7761954823503</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>-43.582487585974235,172.7763320432558</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>-43.58306803580779,172.77685137985426</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>-43.583614488917696,172.7774064208918</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>-43.58409324473717,172.7780330385504</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:13:41+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>-43.580351025980875,172.7775488232946</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>-43.58112398203379,172.77608937161804</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>-43.581779418538034,172.7762852658196</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>-43.582451586726144,172.77645055876766</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>-43.583047507988184,172.77690086720102</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>-43.5836065660288,172.77742062944188</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>-43.58413644935328,172.77796030143244</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:07:12+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>-43.58035121535951,172.77754648444798</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>-43.581124031862224,172.77608875612302</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>-43.58177946393433,172.77628501447842</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>-43.582445476909,172.7764706732475</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>-43.58304625846803,172.77690387947322</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>-43.58359380485023,172.77744351474695</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>-43.58412433307447,172.77798069980832</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0440/nzd0440.xlsx
+++ b/data/nzd0440/nzd0440.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I652"/>
+  <dimension ref="A1:I656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19847,6 +19847,134 @@
       <c r="I652" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr"/>
+      <c r="C653" t="n">
+        <v>326.8</v>
+      </c>
+      <c r="D653" t="n">
+        <v>341.7381818181818</v>
+      </c>
+      <c r="E653" t="n">
+        <v>312.49</v>
+      </c>
+      <c r="F653" t="n">
+        <v>319.18</v>
+      </c>
+      <c r="G653" t="n">
+        <v>320.5771428571429</v>
+      </c>
+      <c r="H653" t="n">
+        <v>318.2633333333333</v>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:07:02+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>320.74</v>
+      </c>
+      <c r="C654" t="n">
+        <v>325.12</v>
+      </c>
+      <c r="D654" t="n">
+        <v>334.6227272727273</v>
+      </c>
+      <c r="E654" t="n">
+        <v>301.29</v>
+      </c>
+      <c r="F654" t="n">
+        <v>313.09</v>
+      </c>
+      <c r="G654" t="n">
+        <v>312.7085714285714</v>
+      </c>
+      <c r="H654" t="n">
+        <v>310.4366666666667</v>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:13:15+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>360.28</v>
+      </c>
+      <c r="C655" t="n">
+        <v>335.64</v>
+      </c>
+      <c r="D655" t="inlineStr"/>
+      <c r="E655" t="n">
+        <v>319.13</v>
+      </c>
+      <c r="F655" t="n">
+        <v>328.07</v>
+      </c>
+      <c r="G655" t="n">
+        <v>329.4242857142857</v>
+      </c>
+      <c r="H655" t="n">
+        <v>331.45</v>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:13:15+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>321.47</v>
+      </c>
+      <c r="C656" t="n">
+        <v>320.2</v>
+      </c>
+      <c r="D656" t="n">
+        <v>330.6463636363636</v>
+      </c>
+      <c r="E656" t="n">
+        <v>295.74</v>
+      </c>
+      <c r="F656" t="n">
+        <v>304.86</v>
+      </c>
+      <c r="G656" t="n">
+        <v>301.2928571428571</v>
+      </c>
+      <c r="H656" t="n">
+        <v>298.96</v>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -19861,7 +19989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B697"/>
+  <dimension ref="A1:B701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26839,6 +26967,46 @@
       </c>
       <c r="B697" t="n">
         <v>-0.79</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>-0.24</v>
       </c>
     </row>
   </sheetData>
@@ -27012,28 +27180,28 @@
         <v>0.0224</v>
       </c>
       <c r="I2" t="n">
-        <v>2.276900000271981</v>
+        <v>2.064749243429106</v>
       </c>
       <c r="J2" t="n">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="K2" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04595355709683935</v>
+        <v>0.03801402275052956</v>
       </c>
       <c r="M2" t="n">
-        <v>67.76973431948696</v>
+        <v>68.61959926326534</v>
       </c>
       <c r="N2" t="n">
-        <v>5772.701577929911</v>
+        <v>5849.435247000418</v>
       </c>
       <c r="O2" t="n">
-        <v>75.97829675591518</v>
+        <v>76.48160070893141</v>
       </c>
       <c r="P2" t="n">
-        <v>396.8752539945446</v>
+        <v>398.9597801827044</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27090,28 +27258,28 @@
         <v>0.0424</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04604687943486781</v>
+        <v>0.0524358661252275</v>
       </c>
       <c r="J3" t="n">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="K3" t="n">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0009393276945762752</v>
+        <v>0.001233544829813416</v>
       </c>
       <c r="M3" t="n">
-        <v>8.866648115998995</v>
+        <v>8.844824665676487</v>
       </c>
       <c r="N3" t="n">
-        <v>123.9979385354825</v>
+        <v>123.4497319077507</v>
       </c>
       <c r="O3" t="n">
-        <v>11.13543616278602</v>
+        <v>11.1107934868645</v>
       </c>
       <c r="P3" t="n">
-        <v>321.3438496971232</v>
+        <v>321.2814023268999</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27168,28 +27336,28 @@
         <v>0.0595</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2884827754424092</v>
+        <v>0.2884670047208254</v>
       </c>
       <c r="J4" t="n">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="K4" t="n">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05141649640167101</v>
+        <v>0.05197619788750452</v>
       </c>
       <c r="M4" t="n">
-        <v>7.15439480478975</v>
+        <v>7.135162473810766</v>
       </c>
       <c r="N4" t="n">
-        <v>84.98558508525048</v>
+        <v>84.58970836555035</v>
       </c>
       <c r="O4" t="n">
-        <v>9.218762665632003</v>
+        <v>9.197266352865418</v>
       </c>
       <c r="P4" t="n">
-        <v>328.2510914440219</v>
+        <v>328.2513107852041</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27246,28 +27414,28 @@
         <v>0.0421</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001931285847135107</v>
+        <v>0.00287852418987814</v>
       </c>
       <c r="J5" t="n">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="K5" t="n">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="L5" t="n">
-        <v>1.923386324431675e-06</v>
+        <v>4.316404078497094e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>8.274707188055286</v>
+        <v>8.277254069548846</v>
       </c>
       <c r="N5" t="n">
-        <v>106.8578960965911</v>
+        <v>106.6943401974186</v>
       </c>
       <c r="O5" t="n">
-        <v>10.33720929925437</v>
+        <v>10.32929524204912</v>
       </c>
       <c r="P5" t="n">
-        <v>306.4477339426616</v>
+        <v>306.4385899151461</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27324,28 +27492,28 @@
         <v>0.0413</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03629255342596056</v>
+        <v>0.03778141147024156</v>
       </c>
       <c r="J6" t="n">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="K6" t="n">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0006527634913873204</v>
+        <v>0.0007154644815769995</v>
       </c>
       <c r="M6" t="n">
-        <v>8.455117814490333</v>
+        <v>8.446850333082716</v>
       </c>
       <c r="N6" t="n">
-        <v>110.1672592571408</v>
+        <v>109.8894652310348</v>
       </c>
       <c r="O6" t="n">
-        <v>10.49605922511591</v>
+        <v>10.48281761889592</v>
       </c>
       <c r="P6" t="n">
-        <v>314.3516773791068</v>
+        <v>314.3371794266801</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27402,28 +27570,28 @@
         <v>0.0379</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03726743045368146</v>
+        <v>0.03962111772023732</v>
       </c>
       <c r="J7" t="n">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="K7" t="n">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0006510713123425438</v>
+        <v>0.0007426694039012194</v>
       </c>
       <c r="M7" t="n">
-        <v>8.551429725330017</v>
+        <v>8.553550442511417</v>
       </c>
       <c r="N7" t="n">
-        <v>116.8189882310396</v>
+        <v>116.7656885814356</v>
       </c>
       <c r="O7" t="n">
-        <v>10.80828331563526</v>
+        <v>10.80581734906877</v>
       </c>
       <c r="P7" t="n">
-        <v>313.4247449990274</v>
+        <v>313.4018752836926</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27480,28 +27648,28 @@
         <v>0.0316</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02748244358443154</v>
+        <v>0.0280271983702278</v>
       </c>
       <c r="J8" t="n">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="K8" t="n">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003082659285139622</v>
+        <v>0.0003233266854171246</v>
       </c>
       <c r="M8" t="n">
-        <v>9.264059752149274</v>
+        <v>9.269882057880015</v>
       </c>
       <c r="N8" t="n">
-        <v>134.0854023233285</v>
+        <v>134.1290651717836</v>
       </c>
       <c r="O8" t="n">
-        <v>11.5795251337578</v>
+        <v>11.58141032740761</v>
       </c>
       <c r="P8" t="n">
-        <v>313.6909382579558</v>
+        <v>313.6856882180982</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27539,7 +27707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I652"/>
+  <dimension ref="A1:I656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53959,6 +54127,186 @@
         </is>
       </c>
     </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:07:18+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr"/>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>-43.58112098235626,172.77612642441719</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>-43.58175638082727,172.77641281596289</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>-43.58246335505709,172.7764118155252</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>-43.583060360190814,172.77686988382263</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>-43.583601430242155,172.77742983972533</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>-43.584122642872266,172.77798354534914</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:07:02+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>-43.58048042022661,172.77595064908</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>-43.58112265659635,172.77610574378554</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>-43.58177182945183,172.77632728350514</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>-43.58250223558472,172.77628381414507</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>-43.58308753721644,172.77680436684375</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>-43.5836445520372,172.77735250699197</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>-43.58416723380062,172.77790847417418</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:13:15+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>-43.58044101530426,172.7764373771191</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>-43.58111217260261,172.77623524391257</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr"/>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>-43.58244030439059,172.7764877019801</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>-43.58302068791311,172.7769655234448</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>-43.58355294556088,172.77751678977836</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>-43.58404751426174,172.7781100278789</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:13:15+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>-43.58047969273926,172.77595963521287</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>-43.58112755970655,172.77604517907216</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>-43.58178046265296,172.7762794849721</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>-43.582521502221425,172.77622038482892</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>-43.58312426407279,172.77671582738475</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>-43.58370711299333,172.7772403125562</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>-43.58423261981195,172.77779839303042</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0440/nzd0440.xlsx
+++ b/data/nzd0440/nzd0440.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I656"/>
+  <dimension ref="A1:I658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19973,6 +19973,68 @@
         <v>298.96</v>
       </c>
       <c r="I656" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>338.67</v>
+      </c>
+      <c r="C657" t="n">
+        <v>321.68</v>
+      </c>
+      <c r="D657" t="inlineStr"/>
+      <c r="E657" t="n">
+        <v>303.04</v>
+      </c>
+      <c r="F657" t="n">
+        <v>310.33</v>
+      </c>
+      <c r="G657" t="n">
+        <v>311.81</v>
+      </c>
+      <c r="H657" t="n">
+        <v>312.4</v>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:13:23+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr"/>
+      <c r="C658" t="n">
+        <v>322.66</v>
+      </c>
+      <c r="D658" t="n">
+        <v>335.4090909090909</v>
+      </c>
+      <c r="E658" t="n">
+        <v>312.51</v>
+      </c>
+      <c r="F658" t="n">
+        <v>326.46</v>
+      </c>
+      <c r="G658" t="n">
+        <v>327.0757142857143</v>
+      </c>
+      <c r="H658" t="n">
+        <v>319.11</v>
+      </c>
+      <c r="I658" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -19989,7 +20051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B701"/>
+  <dimension ref="A1:B703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27007,6 +27069,26 @@
       </c>
       <c r="B701" t="n">
         <v>-0.24</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -27180,28 +27262,28 @@
         <v>0.0224</v>
       </c>
       <c r="I2" t="n">
-        <v>2.064749243429106</v>
+        <v>1.999066862905379</v>
       </c>
       <c r="J2" t="n">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="K2" t="n">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03801402275052956</v>
+        <v>0.03572294524203978</v>
       </c>
       <c r="M2" t="n">
-        <v>68.61959926326534</v>
+        <v>68.86962478918261</v>
       </c>
       <c r="N2" t="n">
-        <v>5849.435247000418</v>
+        <v>5869.289476981571</v>
       </c>
       <c r="O2" t="n">
-        <v>76.48160070893141</v>
+        <v>76.61128818249678</v>
       </c>
       <c r="P2" t="n">
-        <v>398.9597801827044</v>
+        <v>399.6058536276417</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27258,28 +27340,28 @@
         <v>0.0424</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0524358661252275</v>
+        <v>0.05210307737334978</v>
       </c>
       <c r="J3" t="n">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="K3" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001233544829813416</v>
+        <v>0.001227543618662508</v>
       </c>
       <c r="M3" t="n">
-        <v>8.844824665676487</v>
+        <v>8.813796309029982</v>
       </c>
       <c r="N3" t="n">
-        <v>123.4497319077507</v>
+        <v>122.9950237859854</v>
       </c>
       <c r="O3" t="n">
-        <v>11.1107934868645</v>
+        <v>11.09031215908666</v>
       </c>
       <c r="P3" t="n">
-        <v>321.2814023268999</v>
+        <v>321.2846611860838</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27336,28 +27418,28 @@
         <v>0.0595</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2884670047208254</v>
+        <v>0.2883530370357898</v>
       </c>
       <c r="J4" t="n">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="K4" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05197619788750452</v>
+        <v>0.05215166119321635</v>
       </c>
       <c r="M4" t="n">
-        <v>7.135162473810766</v>
+        <v>7.120987315412785</v>
       </c>
       <c r="N4" t="n">
-        <v>84.58970836555035</v>
+        <v>84.41546311989283</v>
       </c>
       <c r="O4" t="n">
-        <v>9.197266352865418</v>
+        <v>9.187788804706649</v>
       </c>
       <c r="P4" t="n">
-        <v>328.2513107852041</v>
+        <v>328.2524292246692</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27414,28 +27496,28 @@
         <v>0.0421</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00287852418987814</v>
+        <v>0.003788954975997879</v>
       </c>
       <c r="J5" t="n">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="K5" t="n">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="L5" t="n">
-        <v>4.316404078497094e-06</v>
+        <v>7.531627474133273e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>8.277254069548846</v>
+        <v>8.264123562662697</v>
       </c>
       <c r="N5" t="n">
-        <v>106.6943401974186</v>
+        <v>106.391963570733</v>
       </c>
       <c r="O5" t="n">
-        <v>10.32929524204912</v>
+        <v>10.31464801002598</v>
       </c>
       <c r="P5" t="n">
-        <v>306.4385899151461</v>
+        <v>306.4296880055928</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27492,28 +27574,28 @@
         <v>0.0413</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03778141147024156</v>
+        <v>0.04005549331551612</v>
       </c>
       <c r="J6" t="n">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="K6" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007154644815769995</v>
+        <v>0.0008085750940677316</v>
       </c>
       <c r="M6" t="n">
-        <v>8.446850333082716</v>
+        <v>8.445793206597406</v>
       </c>
       <c r="N6" t="n">
-        <v>109.8894652310348</v>
+        <v>109.7573969091837</v>
       </c>
       <c r="O6" t="n">
-        <v>10.48281761889592</v>
+        <v>10.47651644914395</v>
       </c>
       <c r="P6" t="n">
-        <v>314.3371794266801</v>
+        <v>314.3148405956293</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27570,28 +27652,28 @@
         <v>0.0379</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03962111772023732</v>
+        <v>0.04328294505808966</v>
       </c>
       <c r="J7" t="n">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="K7" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007426694039012194</v>
+        <v>0.0008909294929264622</v>
       </c>
       <c r="M7" t="n">
-        <v>8.553550442511417</v>
+        <v>8.548284109177754</v>
       </c>
       <c r="N7" t="n">
-        <v>116.7656885814356</v>
+        <v>116.6414126777698</v>
       </c>
       <c r="O7" t="n">
-        <v>10.80581734906877</v>
+        <v>10.80006540155058</v>
       </c>
       <c r="P7" t="n">
-        <v>313.4018752836926</v>
+        <v>313.3660310070776</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27648,28 +27730,28 @@
         <v>0.0316</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0280271983702278</v>
+        <v>0.02901600834667452</v>
       </c>
       <c r="J8" t="n">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="K8" t="n">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003233266854171246</v>
+        <v>0.000349201517619302</v>
       </c>
       <c r="M8" t="n">
-        <v>9.269882057880015</v>
+        <v>9.247429146206738</v>
       </c>
       <c r="N8" t="n">
-        <v>134.1290651717836</v>
+        <v>133.6789368663463</v>
       </c>
       <c r="O8" t="n">
-        <v>11.58141032740761</v>
+        <v>11.56196077083581</v>
       </c>
       <c r="P8" t="n">
-        <v>313.6856882180982</v>
+        <v>313.6759836418529</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27707,7 +27789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I656"/>
+  <dimension ref="A1:I658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54307,6 +54389,92 @@
         </is>
       </c>
     </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>-43.58046255173657,172.7761713632128</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>-43.58112608479061,172.77606339772677</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr"/>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>-43.58249616051177,172.77630381437157</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>-43.58309985388555,172.77677467440049</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>-43.58364947643634,172.77734367577776</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>-43.58415604809117,172.77792730592313</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:13:23+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr"/>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>-43.581125108155476,172.77607546143005</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>-43.58177012215204,172.77633673611697</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>-43.58246328562744,172.77641204409892</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>-43.58302787266229,172.7769482028926</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>-43.58356581635959,172.77749370794353</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>-43.584117819148744,172.7779916663299</t>
+        </is>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0440/nzd0440.xlsx
+++ b/data/nzd0440/nzd0440.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I658"/>
+  <dimension ref="A1:I661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20037,6 +20037,93 @@
       <c r="I658" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:13:31+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>308.85</v>
+      </c>
+      <c r="C659" t="n">
+        <v>316.35</v>
+      </c>
+      <c r="D659" t="n">
+        <v>331.3927272727273</v>
+      </c>
+      <c r="E659" t="n">
+        <v>312.23</v>
+      </c>
+      <c r="F659" t="n">
+        <v>328.24</v>
+      </c>
+      <c r="G659" t="n">
+        <v>326.2857142857143</v>
+      </c>
+      <c r="H659" t="n">
+        <v>328.33</v>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:31+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>364.3</v>
+      </c>
+      <c r="C660" t="n">
+        <v>332.66</v>
+      </c>
+      <c r="D660" t="n">
+        <v>336.1945454545454</v>
+      </c>
+      <c r="E660" t="n">
+        <v>312.41</v>
+      </c>
+      <c r="F660" t="n">
+        <v>325.03</v>
+      </c>
+      <c r="G660" t="n">
+        <v>322.81</v>
+      </c>
+      <c r="H660" t="n">
+        <v>325.52</v>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:07:23+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>365.37</v>
+      </c>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr"/>
+      <c r="E661" t="inlineStr"/>
+      <c r="F661" t="inlineStr"/>
+      <c r="G661" t="inlineStr"/>
+      <c r="H661" t="inlineStr"/>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -20051,7 +20138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B703"/>
+  <dimension ref="A1:B706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27089,6 +27176,36 @@
       </c>
       <c r="B703" t="n">
         <v>-0.06</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>
@@ -27262,28 +27379,28 @@
         <v>0.0224</v>
       </c>
       <c r="I2" t="n">
-        <v>1.999066862905379</v>
+        <v>1.820323322366617</v>
       </c>
       <c r="J2" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K2" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03572294524203978</v>
+        <v>0.02986866332265148</v>
       </c>
       <c r="M2" t="n">
-        <v>68.86962478918261</v>
+        <v>69.51815866675021</v>
       </c>
       <c r="N2" t="n">
-        <v>5869.289476981571</v>
+        <v>5916.89191687794</v>
       </c>
       <c r="O2" t="n">
-        <v>76.61128818249678</v>
+        <v>76.92133590154256</v>
       </c>
       <c r="P2" t="n">
-        <v>399.6058536276417</v>
+        <v>401.3701171824491</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27340,28 +27457,28 @@
         <v>0.0424</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05210307737334978</v>
+        <v>0.0534492306959652</v>
       </c>
       <c r="J3" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K3" t="n">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001227543618662508</v>
+        <v>0.001299111981673762</v>
       </c>
       <c r="M3" t="n">
-        <v>8.813796309029982</v>
+        <v>8.811921337637814</v>
       </c>
       <c r="N3" t="n">
-        <v>122.9950237859854</v>
+        <v>122.7997096282263</v>
       </c>
       <c r="O3" t="n">
-        <v>11.09031215908666</v>
+        <v>11.08150304012169</v>
       </c>
       <c r="P3" t="n">
-        <v>321.2846611860838</v>
+        <v>321.2714008542216</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27418,28 +27535,28 @@
         <v>0.0595</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2883530370357898</v>
+        <v>0.2868441383266196</v>
       </c>
       <c r="J4" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K4" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05215166119321635</v>
+        <v>0.05203750658412365</v>
       </c>
       <c r="M4" t="n">
-        <v>7.120987315412785</v>
+        <v>7.100913742902366</v>
       </c>
       <c r="N4" t="n">
-        <v>84.41546311989283</v>
+        <v>84.10716310637979</v>
       </c>
       <c r="O4" t="n">
-        <v>9.187788804706649</v>
+        <v>9.170995753263643</v>
       </c>
       <c r="P4" t="n">
-        <v>328.2524292246692</v>
+        <v>328.2672506057121</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27496,28 +27613,28 @@
         <v>0.0421</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003788954975997879</v>
+        <v>0.007910492826792253</v>
       </c>
       <c r="J5" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K5" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L5" t="n">
-        <v>7.531627474133273e-06</v>
+        <v>3.304910686385831e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>8.264123562662697</v>
+        <v>8.254070766915664</v>
       </c>
       <c r="N5" t="n">
-        <v>106.391963570733</v>
+        <v>106.125241319505</v>
       </c>
       <c r="O5" t="n">
-        <v>10.31464801002598</v>
+        <v>10.30171060161879</v>
       </c>
       <c r="P5" t="n">
-        <v>306.4296880055928</v>
+        <v>306.3894335129513</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27574,28 +27691,28 @@
         <v>0.0413</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04005549331551612</v>
+        <v>0.0482791707733949</v>
       </c>
       <c r="J6" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K6" t="n">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0008085750940677316</v>
+        <v>0.00117855341398776</v>
       </c>
       <c r="M6" t="n">
-        <v>8.445793206597406</v>
+        <v>8.457625355346101</v>
       </c>
       <c r="N6" t="n">
-        <v>109.7573969091837</v>
+        <v>109.8267598389387</v>
       </c>
       <c r="O6" t="n">
-        <v>10.47651644914395</v>
+        <v>10.47982632675459</v>
       </c>
       <c r="P6" t="n">
-        <v>314.3148405956293</v>
+        <v>314.2340646584236</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27652,28 +27769,28 @@
         <v>0.0379</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04328294505808966</v>
+        <v>0.05055292225884885</v>
       </c>
       <c r="J7" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K7" t="n">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0008909294929264622</v>
+        <v>0.001220675723145326</v>
       </c>
       <c r="M7" t="n">
-        <v>8.548284109177754</v>
+        <v>8.55009873886674</v>
       </c>
       <c r="N7" t="n">
-        <v>116.6414126777698</v>
+        <v>116.5916303185433</v>
       </c>
       <c r="O7" t="n">
-        <v>10.80006540155058</v>
+        <v>10.79776043068854</v>
       </c>
       <c r="P7" t="n">
-        <v>313.3660310070776</v>
+        <v>313.294799906012</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27730,28 +27847,28 @@
         <v>0.0316</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02901600834667452</v>
+        <v>0.03808748810968119</v>
       </c>
       <c r="J8" t="n">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="K8" t="n">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000349201517619302</v>
+        <v>0.0006037231527343812</v>
       </c>
       <c r="M8" t="n">
-        <v>9.247429146206738</v>
+        <v>9.255043836532797</v>
       </c>
       <c r="N8" t="n">
-        <v>133.6789368663463</v>
+        <v>133.7630659741596</v>
       </c>
       <c r="O8" t="n">
-        <v>11.56196077083581</v>
+        <v>11.56559838374823</v>
       </c>
       <c r="P8" t="n">
-        <v>313.6759836418529</v>
+        <v>313.5869483340851</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27789,7 +27906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I658"/>
+  <dimension ref="A1:I661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54475,6 +54592,123 @@
         </is>
       </c>
     </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:13:31+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>-43.580492269202104,172.7758042858724</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>-43.58113139646754,172.77599778594615</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>-43.58177884220223,172.77628845675997</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>-43.582464257642386,172.77640884406642</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>-43.583019929274855,172.7769673523227</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>-43.58357014576952,172.77748594379617</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>-43.584065289901275,172.77808010180823</t>
+        </is>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:13:31+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>-43.58043700892138,172.7764868623323</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>-43.58111514241802,172.776198560421</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>-43.5817684168252,172.77634617780038</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>-43.58246363277565,172.77641090123018</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>-43.583034254145375,172.77693281879618</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>-43.58358919360115,172.77745178434253</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>-43.58408129936472,172.77805314914622</t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:07:23+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>-43.58043594254221,172.77650003376854</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr"/>
+      <c r="E661" t="inlineStr"/>
+      <c r="F661" t="inlineStr"/>
+      <c r="G661" t="inlineStr"/>
+      <c r="H661" t="inlineStr"/>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0440/nzd0440.xlsx
+++ b/data/nzd0440/nzd0440.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I661"/>
+  <dimension ref="A1:I665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20079,9 +20079,7 @@
           <t>2025-06-30 22:13:31+00:00</t>
         </is>
       </c>
-      <c r="B660" t="n">
-        <v>364.3</v>
-      </c>
+      <c r="B660" t="inlineStr"/>
       <c r="C660" t="n">
         <v>332.66</v>
       </c>
@@ -20109,21 +20107,157 @@
     <row r="661">
       <c r="A661" s="1" t="inlineStr">
         <is>
-          <t>2025-07-01 22:07:23+00:00</t>
+          <t>2025-07-24 22:13:41+00:00</t>
         </is>
       </c>
       <c r="B661" t="n">
-        <v>365.37</v>
-      </c>
-      <c r="C661" t="inlineStr"/>
-      <c r="D661" t="inlineStr"/>
-      <c r="E661" t="inlineStr"/>
-      <c r="F661" t="inlineStr"/>
-      <c r="G661" t="inlineStr"/>
-      <c r="H661" t="inlineStr"/>
+        <v>295.88</v>
+      </c>
+      <c r="C661" t="n">
+        <v>315.23</v>
+      </c>
+      <c r="D661" t="n">
+        <v>335.0063636363636</v>
+      </c>
+      <c r="E661" t="n">
+        <v>313.25</v>
+      </c>
+      <c r="F661" t="n">
+        <v>335.38</v>
+      </c>
+      <c r="G661" t="n">
+        <v>327.2128571428572</v>
+      </c>
+      <c r="H661" t="n">
+        <v>325.1733333333333</v>
+      </c>
       <c r="I661" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:13:42+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr"/>
+      <c r="C662" t="n">
+        <v>328.42</v>
+      </c>
+      <c r="D662" t="n">
+        <v>335.2227272727272</v>
+      </c>
+      <c r="E662" t="n">
+        <v>306.89</v>
+      </c>
+      <c r="F662" t="n">
+        <v>315.28</v>
+      </c>
+      <c r="G662" t="n">
+        <v>311.4042857142857</v>
+      </c>
+      <c r="H662" t="n">
+        <v>316.7166666666667</v>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:07:33+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr"/>
+      <c r="C663" t="n">
+        <v>323.65</v>
+      </c>
+      <c r="D663" t="inlineStr"/>
+      <c r="E663" t="n">
+        <v>301.83</v>
+      </c>
+      <c r="F663" t="n">
+        <v>313.42</v>
+      </c>
+      <c r="G663" t="n">
+        <v>309.6828571428572</v>
+      </c>
+      <c r="H663" t="n">
+        <v>316.2133333333333</v>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:13:54+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>360.37</v>
+      </c>
+      <c r="C664" t="n">
+        <v>330.01</v>
+      </c>
+      <c r="D664" t="n">
+        <v>334.6681818181818</v>
+      </c>
+      <c r="E664" t="n">
+        <v>301.7</v>
+      </c>
+      <c r="F664" t="n">
+        <v>311.82</v>
+      </c>
+      <c r="G664" t="n">
+        <v>309.3814285714286</v>
+      </c>
+      <c r="H664" t="n">
+        <v>314.2966666666667</v>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr"/>
+      <c r="C665" t="n">
+        <v>333.63</v>
+      </c>
+      <c r="D665" t="n">
+        <v>337.7336363636364</v>
+      </c>
+      <c r="E665" t="n">
+        <v>308.56</v>
+      </c>
+      <c r="F665" t="n">
+        <v>316.47</v>
+      </c>
+      <c r="G665" t="n">
+        <v>306.3114285714286</v>
+      </c>
+      <c r="H665" t="n">
+        <v>309.7966666666667</v>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -20138,7 +20272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B706"/>
+  <dimension ref="A1:B711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27206,6 +27340,56 @@
       </c>
       <c r="B706" t="n">
         <v>0.71</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -27379,28 +27563,28 @@
         <v>0.0224</v>
       </c>
       <c r="I2" t="n">
-        <v>1.820323322366617</v>
+        <v>1.777362862672695</v>
       </c>
       <c r="J2" t="n">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="K2" t="n">
         <v>351</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02986866332265148</v>
+        <v>0.02829535326986687</v>
       </c>
       <c r="M2" t="n">
-        <v>69.51815866675021</v>
+        <v>69.81108041188408</v>
       </c>
       <c r="N2" t="n">
-        <v>5916.89191687794</v>
+        <v>5965.535958972843</v>
       </c>
       <c r="O2" t="n">
-        <v>76.92133590154256</v>
+        <v>77.2368821158185</v>
       </c>
       <c r="P2" t="n">
-        <v>401.3701171824491</v>
+        <v>401.7998675302075</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27457,28 +27641,28 @@
         <v>0.0424</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0534492306959652</v>
+        <v>0.05967648318664615</v>
       </c>
       <c r="J3" t="n">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="K3" t="n">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001299111981673762</v>
+        <v>0.001644248009865401</v>
       </c>
       <c r="M3" t="n">
-        <v>8.811921337637814</v>
+        <v>8.793365634929145</v>
       </c>
       <c r="N3" t="n">
-        <v>122.7997096282263</v>
+        <v>122.157218082634</v>
       </c>
       <c r="O3" t="n">
-        <v>11.08150304012169</v>
+        <v>11.0524756540168</v>
       </c>
       <c r="P3" t="n">
-        <v>321.2714008542216</v>
+        <v>321.2097040517584</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27535,28 +27719,28 @@
         <v>0.0595</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2868441383266196</v>
+        <v>0.2867627464990153</v>
       </c>
       <c r="J4" t="n">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="K4" t="n">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05203750658412365</v>
+        <v>0.05285819846442508</v>
       </c>
       <c r="M4" t="n">
-        <v>7.100913742902366</v>
+        <v>7.051648268965841</v>
       </c>
       <c r="N4" t="n">
-        <v>84.10716310637979</v>
+        <v>83.43388555153155</v>
       </c>
       <c r="O4" t="n">
-        <v>9.170995753263643</v>
+        <v>9.134215103200249</v>
       </c>
       <c r="P4" t="n">
-        <v>328.2672506057121</v>
+        <v>328.2680343613071</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27613,28 +27797,28 @@
         <v>0.0421</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007910492826792253</v>
+        <v>0.007643477790869236</v>
       </c>
       <c r="J5" t="n">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="K5" t="n">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="L5" t="n">
-        <v>3.304910686385831e-05</v>
+        <v>3.14128070428854e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>8.254070766915664</v>
+        <v>8.213178805135819</v>
       </c>
       <c r="N5" t="n">
-        <v>106.125241319505</v>
+        <v>105.3387381222124</v>
       </c>
       <c r="O5" t="n">
-        <v>10.30171060161879</v>
+        <v>10.26346618458951</v>
       </c>
       <c r="P5" t="n">
-        <v>306.3894335129513</v>
+        <v>306.3920928939281</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27691,28 +27875,28 @@
         <v>0.0413</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0482791707733949</v>
+        <v>0.053595223145255</v>
       </c>
       <c r="J6" t="n">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="K6" t="n">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00117855341398776</v>
+        <v>0.001470932325145169</v>
       </c>
       <c r="M6" t="n">
-        <v>8.457625355346101</v>
+        <v>8.430336799546103</v>
       </c>
       <c r="N6" t="n">
-        <v>109.8267598389387</v>
+        <v>109.5770010057393</v>
       </c>
       <c r="O6" t="n">
-        <v>10.47982632675459</v>
+        <v>10.46790337201004</v>
       </c>
       <c r="P6" t="n">
-        <v>314.2340646584236</v>
+        <v>314.1816939251528</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27769,28 +27953,28 @@
         <v>0.0379</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05055292225884885</v>
+        <v>0.04731635566171553</v>
       </c>
       <c r="J7" t="n">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="K7" t="n">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001220675723145326</v>
+        <v>0.001085949188066038</v>
       </c>
       <c r="M7" t="n">
-        <v>8.55009873886674</v>
+        <v>8.535934908864874</v>
       </c>
       <c r="N7" t="n">
-        <v>116.5916303185433</v>
+        <v>116.0554849996736</v>
       </c>
       <c r="O7" t="n">
-        <v>10.79776043068854</v>
+        <v>10.77290513277053</v>
       </c>
       <c r="P7" t="n">
-        <v>313.294799906012</v>
+        <v>313.3268424290087</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27847,28 +28031,28 @@
         <v>0.0316</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03808748810968119</v>
+        <v>0.04138402131175097</v>
       </c>
       <c r="J8" t="n">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="K8" t="n">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006037231527343812</v>
+        <v>0.0007255276966614543</v>
       </c>
       <c r="M8" t="n">
-        <v>9.255043836532797</v>
+        <v>9.204122494977302</v>
       </c>
       <c r="N8" t="n">
-        <v>133.7630659741596</v>
+        <v>132.7965462076627</v>
       </c>
       <c r="O8" t="n">
-        <v>11.56559838374823</v>
+        <v>11.52373837813332</v>
       </c>
       <c r="P8" t="n">
-        <v>313.5869483340851</v>
+        <v>313.5545370883926</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27906,7 +28090,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I661"/>
+  <dimension ref="A1:I665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54645,11 +54829,7 @@
           <t>2025-06-30 22:13:31+00:00</t>
         </is>
       </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t>-43.58043700892138,172.7764868623323</t>
-        </is>
-      </c>
+      <c r="B660" t="inlineStr"/>
       <c r="C660" t="inlineStr">
         <is>
           <t>-43.58111514241802,172.776198560421</t>
@@ -54689,23 +54869,219 @@
     <row r="661">
       <c r="A661" s="1" t="inlineStr">
         <is>
-          <t>2025-07-01 22:07:23+00:00</t>
+          <t>2025-07-24 22:13:41+00:00</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>-43.58043594254221,172.77650003376854</t>
-        </is>
-      </c>
-      <c r="C661" t="inlineStr"/>
-      <c r="D661" t="inlineStr"/>
-      <c r="E661" t="inlineStr"/>
-      <c r="F661" t="inlineStr"/>
-      <c r="G661" t="inlineStr"/>
-      <c r="H661" t="inlineStr"/>
+          <t>-43.58050519423737,172.77564462804474</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>-43.5811325126125,172.77598399885383</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>-43.58177099652647,172.77633189506847</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>-43.58246071673035,172.77642050132715</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>-43.58298806644107,172.77704416515488</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>-43.583565064780224,172.7774950557882</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>-43.5840832744345,172.7780498240244</t>
+        </is>
+      </c>
       <c r="I661" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:13:42+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr"/>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>-43.5811193679069,172.77614636645376</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>-43.581770526772296,172.77633449590266</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>-43.58248279533889,172.77634781485565</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>-43.58307776420172,172.77682792714344</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>-43.58365169985323,172.77733968839283</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>-43.58413145471215,172.77796871016832</t>
+        </is>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:07:33+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr"/>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>-43.58112412155337,172.77608764823194</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr"/>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>-43.582500360991155,172.77628998564398</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>-43.58308606457071,172.7768079170264</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>-43.58366113371554,172.77732277008369</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>-43.584134322357905,172.77796388233915</t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:13:54+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>-43.58044092560937,172.77643848499707</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>-43.581117783351374,172.7761659391923</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>-43.58177173076401,172.77632782989892</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>-43.58250081228222,172.7762884999128</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>-43.58309320467022,172.77679070401808</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>-43.583662785619815,172.77731980762402</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>-43.584145242199085,172.77794549821724</t>
+        </is>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:45+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr"/>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>-43.581114175734434,172.776210501021</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>-43.58176507525081,172.77636467869004</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>-43.582476997972904,172.7763669007739</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>-43.58307245374876,172.77684072931223</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>-43.583679609986284,172.77728963545462</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>-43.58417088007537,172.77790233547015</t>
+        </is>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0440/nzd0440.xlsx
+++ b/data/nzd0440/nzd0440.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I665"/>
+  <dimension ref="A1:I667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20236,7 +20236,9 @@
           <t>2025-08-26 22:07:45+00:00</t>
         </is>
       </c>
-      <c r="B665" t="inlineStr"/>
+      <c r="B665" t="n">
+        <v>491.07</v>
+      </c>
       <c r="C665" t="n">
         <v>333.63</v>
       </c>
@@ -20258,6 +20260,72 @@
       <c r="I665" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:13:59+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>502.78</v>
+      </c>
+      <c r="C666" t="n">
+        <v>327.16</v>
+      </c>
+      <c r="D666" t="n">
+        <v>343.8572727272727</v>
+      </c>
+      <c r="E666" t="n">
+        <v>315.81</v>
+      </c>
+      <c r="F666" t="n">
+        <v>320.97</v>
+      </c>
+      <c r="G666" t="n">
+        <v>320.6885714285714</v>
+      </c>
+      <c r="H666" t="n">
+        <v>321.2466666666667</v>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:13:56+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>483.07</v>
+      </c>
+      <c r="C667" t="n">
+        <v>318.52</v>
+      </c>
+      <c r="D667" t="n">
+        <v>335.0563636363636</v>
+      </c>
+      <c r="E667" t="n">
+        <v>303.45</v>
+      </c>
+      <c r="F667" t="n">
+        <v>310.07</v>
+      </c>
+      <c r="G667" t="n">
+        <v>308.4757142857143</v>
+      </c>
+      <c r="H667" t="n">
+        <v>311.7866666666667</v>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -20272,7 +20340,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B711"/>
+  <dimension ref="A1:B713"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27390,6 +27458,26 @@
       </c>
       <c r="B711" t="n">
         <v>0.02</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>-0.13</v>
       </c>
     </row>
   </sheetData>
@@ -27563,28 +27651,28 @@
         <v>0.0224</v>
       </c>
       <c r="I2" t="n">
-        <v>1.777362862672695</v>
+        <v>1.851816834360636</v>
       </c>
       <c r="J2" t="n">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="K2" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02829535326986687</v>
+        <v>0.03112254821968441</v>
       </c>
       <c r="M2" t="n">
-        <v>69.81108041188408</v>
+        <v>69.44144598344667</v>
       </c>
       <c r="N2" t="n">
-        <v>5965.535958972843</v>
+        <v>5931.688061799678</v>
       </c>
       <c r="O2" t="n">
-        <v>77.2368821158185</v>
+        <v>77.01745296878934</v>
       </c>
       <c r="P2" t="n">
-        <v>401.7998675302075</v>
+        <v>401.0588544130471</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27641,28 +27729,28 @@
         <v>0.0424</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05967648318664615</v>
+        <v>0.05972719862702562</v>
       </c>
       <c r="J3" t="n">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="K3" t="n">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001644248009865401</v>
+        <v>0.001658811907144786</v>
       </c>
       <c r="M3" t="n">
-        <v>8.793365634929145</v>
+        <v>8.777123056278169</v>
       </c>
       <c r="N3" t="n">
-        <v>122.157218082634</v>
+        <v>121.7809150643342</v>
       </c>
       <c r="O3" t="n">
-        <v>11.0524756540168</v>
+        <v>11.03543905172486</v>
       </c>
       <c r="P3" t="n">
-        <v>321.2097040517584</v>
+        <v>321.2092166731069</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27719,28 +27807,28 @@
         <v>0.0595</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2867627464990153</v>
+        <v>0.2896497030543299</v>
       </c>
       <c r="J4" t="n">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="K4" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05285819846442508</v>
+        <v>0.05422312791692674</v>
       </c>
       <c r="M4" t="n">
-        <v>7.051648268965841</v>
+        <v>7.042364135048867</v>
       </c>
       <c r="N4" t="n">
-        <v>83.43388555153155</v>
+        <v>83.22963509845471</v>
       </c>
       <c r="O4" t="n">
-        <v>9.134215103200249</v>
+        <v>9.123027737459461</v>
       </c>
       <c r="P4" t="n">
-        <v>328.2680343613071</v>
+        <v>328.2394051103673</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27797,28 +27885,28 @@
         <v>0.0421</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007643477790869236</v>
+        <v>0.009754439029493869</v>
       </c>
       <c r="J5" t="n">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="K5" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L5" t="n">
-        <v>3.14128070428854e-05</v>
+        <v>5.147169420482989e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>8.213178805135819</v>
+        <v>8.205334560324383</v>
       </c>
       <c r="N5" t="n">
-        <v>105.3387381222124</v>
+        <v>105.1300552182621</v>
       </c>
       <c r="O5" t="n">
-        <v>10.26346618458951</v>
+        <v>10.25329484693882</v>
       </c>
       <c r="P5" t="n">
-        <v>306.3920928939281</v>
+        <v>306.3713043294181</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27875,28 +27963,28 @@
         <v>0.0413</v>
       </c>
       <c r="I6" t="n">
-        <v>0.053595223145255</v>
+        <v>0.05355084323622557</v>
       </c>
       <c r="J6" t="n">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="K6" t="n">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001470932325145169</v>
+        <v>0.001478627230957597</v>
       </c>
       <c r="M6" t="n">
-        <v>8.430336799546103</v>
+        <v>8.419412208892952</v>
       </c>
       <c r="N6" t="n">
-        <v>109.5770010057393</v>
+        <v>109.2844555389675</v>
       </c>
       <c r="O6" t="n">
-        <v>10.46790337201004</v>
+        <v>10.45392058220109</v>
       </c>
       <c r="P6" t="n">
-        <v>314.1816939251528</v>
+        <v>314.1821538489021</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27953,28 +28041,28 @@
         <v>0.0379</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04731635566171553</v>
+        <v>0.04732871990708397</v>
       </c>
       <c r="J7" t="n">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="K7" t="n">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001085949188066038</v>
+        <v>0.001093761295499318</v>
       </c>
       <c r="M7" t="n">
-        <v>8.535934908864874</v>
+        <v>8.527095768617338</v>
       </c>
       <c r="N7" t="n">
-        <v>116.0554849996736</v>
+        <v>115.7690845105857</v>
       </c>
       <c r="O7" t="n">
-        <v>10.77290513277053</v>
+        <v>10.75960429154278</v>
       </c>
       <c r="P7" t="n">
-        <v>313.3268424290087</v>
+        <v>313.3267422657437</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28031,28 +28119,28 @@
         <v>0.0316</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04138402131175097</v>
+        <v>0.04271816483252681</v>
       </c>
       <c r="J8" t="n">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="K8" t="n">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007255276966614543</v>
+        <v>0.0007785512035214381</v>
       </c>
       <c r="M8" t="n">
-        <v>9.204122494977302</v>
+        <v>9.18709300624621</v>
       </c>
       <c r="N8" t="n">
-        <v>132.7965462076627</v>
+        <v>132.4056605040894</v>
       </c>
       <c r="O8" t="n">
-        <v>11.52373837813332</v>
+        <v>11.50676585770691</v>
       </c>
       <c r="P8" t="n">
-        <v>313.5545370883926</v>
+        <v>313.5413369742462</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28090,7 +28178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I665"/>
+  <dimension ref="A1:I667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55048,7 +55136,11 @@
           <t>2025-08-26 22:07:45+00:00</t>
         </is>
       </c>
-      <c r="B665" t="inlineStr"/>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>-43.58031065733767,172.7780473665914</t>
+        </is>
+      </c>
       <c r="C665" t="inlineStr">
         <is>
           <t>-43.581114175734434,172.776210501021</t>
@@ -55082,6 +55174,100 @@
       <c r="I665" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:13:59+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>-43.58029898491213,172.77819151318505</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>-43.58112062359004,172.77613085598097</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>-43.58175177997882,172.77643828882518</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>-43.58245182973016,172.77644975875987</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>-43.58305237219086,172.7768891408545</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>-43.58360081958455,172.7774309348504</t>
+        </is>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>-43.58410564589112,172.77801216061027</t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:13:56+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>-43.58031863156308,172.77794888895525</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>-43.58112923393196,172.77602449843607</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>-43.58177088796984,172.77633249610156</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>-43.58249473720845,172.7763085001383</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>-43.58310101415108,172.77677187728563</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>-43.583667749161044,172.77731090620398</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>-43.584159542438776,172.7779214230006</t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0440/nzd0440.xlsx
+++ b/data/nzd0440/nzd0440.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I667"/>
+  <dimension ref="A1:I669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20324,6 +20324,70 @@
         <v>311.7866666666667</v>
       </c>
       <c r="I667" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>455.16</v>
+      </c>
+      <c r="C668" t="n">
+        <v>330.09</v>
+      </c>
+      <c r="D668" t="n">
+        <v>334.7645454545454</v>
+      </c>
+      <c r="E668" t="n">
+        <v>323.07</v>
+      </c>
+      <c r="F668" t="n">
+        <v>329.02</v>
+      </c>
+      <c r="G668" t="n">
+        <v>330.1857142857143</v>
+      </c>
+      <c r="H668" t="n">
+        <v>328.17</v>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:14:02+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr"/>
+      <c r="C669" t="n">
+        <v>320.52</v>
+      </c>
+      <c r="D669" t="n">
+        <v>331.8281818181818</v>
+      </c>
+      <c r="E669" t="n">
+        <v>304.82</v>
+      </c>
+      <c r="F669" t="n">
+        <v>314.08</v>
+      </c>
+      <c r="G669" t="n">
+        <v>313.6157142857143</v>
+      </c>
+      <c r="H669" t="n">
+        <v>315.1133333333333</v>
+      </c>
+      <c r="I669" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -20340,7 +20404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B713"/>
+  <dimension ref="A1:B715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27478,6 +27542,26 @@
       </c>
       <c r="B713" t="n">
         <v>-0.13</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -28178,7 +28262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I667"/>
+  <dimension ref="A1:I669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55271,6 +55355,96 @@
         </is>
       </c>
     </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:51+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>-43.580346450977295,172.7776053249013</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>-43.5811177036252,172.77616692398416</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>-43.58177152154582,172.77632898825368</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>-43.58242662671216,172.7765327309637</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>-43.583016448463596,172.77697574364447</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>-43.58354877272793,172.7775242731205</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>-43.58406620147232,172.77807856713747</t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:14:02+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr"/>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>-43.58112724080605,172.7760491182408</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>-43.58177789677451,172.7762936912133</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>-43.582489981291104,172.77632415745492</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>-43.58308311927889,172.77681501739113</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>-43.583639580663736,172.77736142244527</t>
+        </is>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>-43.584140589397556,172.7779533314526</t>
+        </is>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0440/nzd0440.xlsx
+++ b/data/nzd0440/nzd0440.xlsx
@@ -27735,28 +27735,28 @@
         <v>0.0224</v>
       </c>
       <c r="I2" t="n">
-        <v>1.851816834360636</v>
+        <v>1.85507037187531</v>
       </c>
       <c r="J2" t="n">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="K2" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03112254821968441</v>
+        <v>0.03141625284701577</v>
       </c>
       <c r="M2" t="n">
-        <v>69.44144598344667</v>
+        <v>69.25545455459466</v>
       </c>
       <c r="N2" t="n">
-        <v>5931.688061799678</v>
+        <v>5915.073954809806</v>
       </c>
       <c r="O2" t="n">
-        <v>77.01745296878934</v>
+        <v>76.90951797280884</v>
       </c>
       <c r="P2" t="n">
-        <v>401.0588544130471</v>
+        <v>401.026403622063</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27813,28 +27813,28 @@
         <v>0.0424</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05972719862702562</v>
+        <v>0.0614874306676743</v>
       </c>
       <c r="J3" t="n">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="K3" t="n">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001658811907144786</v>
+        <v>0.001769767192813188</v>
       </c>
       <c r="M3" t="n">
-        <v>8.777123056278169</v>
+        <v>8.763403486066382</v>
       </c>
       <c r="N3" t="n">
-        <v>121.7809150643342</v>
+        <v>121.4457400495396</v>
       </c>
       <c r="O3" t="n">
-        <v>11.03543905172486</v>
+        <v>11.02024228633561</v>
       </c>
       <c r="P3" t="n">
-        <v>321.2092166731069</v>
+        <v>321.1917309820792</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27891,28 +27891,28 @@
         <v>0.0595</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2896497030543299</v>
+        <v>0.2877273935258964</v>
       </c>
       <c r="J4" t="n">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="K4" t="n">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05422312791692674</v>
+        <v>0.05395316085941682</v>
       </c>
       <c r="M4" t="n">
-        <v>7.042364135048867</v>
+        <v>7.022904833414112</v>
       </c>
       <c r="N4" t="n">
-        <v>83.22963509845471</v>
+        <v>82.92695778667184</v>
       </c>
       <c r="O4" t="n">
-        <v>9.123027737459461</v>
+        <v>9.106423984565613</v>
       </c>
       <c r="P4" t="n">
-        <v>328.2394051103673</v>
+        <v>328.258526931839</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27969,28 +27969,28 @@
         <v>0.0421</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009754439029493869</v>
+        <v>0.01480720108449238</v>
       </c>
       <c r="J5" t="n">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="K5" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="L5" t="n">
-        <v>5.147169420482989e-05</v>
+        <v>0.0001189569963367942</v>
       </c>
       <c r="M5" t="n">
-        <v>8.205334560324383</v>
+        <v>8.207693943918633</v>
       </c>
       <c r="N5" t="n">
-        <v>105.1300552182621</v>
+        <v>105.2415646118394</v>
       </c>
       <c r="O5" t="n">
-        <v>10.25329484693882</v>
+        <v>10.25873114044029</v>
       </c>
       <c r="P5" t="n">
-        <v>306.3713043294181</v>
+        <v>306.3214139281731</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28047,28 +28047,28 @@
         <v>0.0413</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05355084323622557</v>
+        <v>0.05776905275678523</v>
       </c>
       <c r="J6" t="n">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="K6" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001478627230957597</v>
+        <v>0.001728551069561268</v>
       </c>
       <c r="M6" t="n">
-        <v>8.419412208892952</v>
+        <v>8.416859777591316</v>
       </c>
       <c r="N6" t="n">
-        <v>109.2844555389675</v>
+        <v>109.2179429177751</v>
       </c>
       <c r="O6" t="n">
-        <v>10.45392058220109</v>
+        <v>10.45073886946636</v>
       </c>
       <c r="P6" t="n">
-        <v>314.1821538489021</v>
+        <v>314.140267573642</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28125,28 +28125,28 @@
         <v>0.0379</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04732871990708397</v>
+        <v>0.05247109916728535</v>
       </c>
       <c r="J7" t="n">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="K7" t="n">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001093761295499318</v>
+        <v>0.001349328381244241</v>
       </c>
       <c r="M7" t="n">
-        <v>8.527095768617338</v>
+        <v>8.524122908934389</v>
       </c>
       <c r="N7" t="n">
-        <v>115.7690845105857</v>
+        <v>115.7913393844494</v>
       </c>
       <c r="O7" t="n">
-        <v>10.75960429154278</v>
+        <v>10.76063842829269</v>
       </c>
       <c r="P7" t="n">
-        <v>313.3267422657437</v>
+        <v>313.2758010866499</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28203,28 +28203,28 @@
         <v>0.0316</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04271816483252681</v>
+        <v>0.04763551001205463</v>
       </c>
       <c r="J8" t="n">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="K8" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007785512035214381</v>
+        <v>0.0009730476913775155</v>
       </c>
       <c r="M8" t="n">
-        <v>9.18709300624621</v>
+        <v>9.176328240499259</v>
       </c>
       <c r="N8" t="n">
-        <v>132.4056605040894</v>
+        <v>132.2543809116785</v>
       </c>
       <c r="O8" t="n">
-        <v>11.50676585770691</v>
+        <v>11.50019047284342</v>
       </c>
       <c r="P8" t="n">
-        <v>313.5413369742462</v>
+        <v>313.4925376394797</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">

--- a/data/nzd0440/nzd0440.xlsx
+++ b/data/nzd0440/nzd0440.xlsx
@@ -27726,13 +27726,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0149</v>
+        <v>0.0444</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0224</v>
+        <v>0.1583</v>
       </c>
       <c r="I2" t="n">
         <v>1.85507037187531</v>
@@ -27804,13 +27804,13 @@
         <v>0.16704640162798</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0373</v>
+        <v>0.0751</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0424</v>
+        <v>0.0935</v>
       </c>
       <c r="I3" t="n">
         <v>0.0614874306676743</v>
@@ -27882,13 +27882,13 @@
         <v>0.3340928032568051</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.11</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0499</v>
+        <v>0.0951</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0595</v>
+        <v>0.1361</v>
       </c>
       <c r="I4" t="n">
         <v>0.2877187402613006</v>
@@ -27960,13 +27960,13 @@
         <v>0.5002947382602327</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0391</v>
+        <v>0.055</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0421</v>
+        <v>0.0646</v>
       </c>
       <c r="I5" t="n">
         <v>0.01480720108449238</v>
@@ -28038,13 +28038,13 @@
         <v>0.6673411398891225</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0366</v>
+        <v>0.0489</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0413</v>
+        <v>0.0601</v>
       </c>
       <c r="I6" t="n">
         <v>0.05776905275678523</v>
@@ -28116,13 +28116,13 @@
         <v>0.8329674844352764</v>
       </c>
       <c r="F7" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0344</v>
+        <v>0.0474</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0379</v>
+        <v>0.0516</v>
       </c>
       <c r="I7" t="n">
         <v>0.05246790752800734</v>
@@ -28194,13 +28194,13 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03</v>
+        <v>0.045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0297</v>
+        <v>0.0398</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0316</v>
+        <v>0.0461</v>
       </c>
       <c r="I8" t="n">
         <v>0.04762749095004564</v>

--- a/data/nzd0440/nzd0440.xlsx
+++ b/data/nzd0440/nzd0440.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I685"/>
+  <dimension ref="A1:I686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23048,6 +23048,39 @@
       <c r="I685" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:04+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>418.58</v>
+      </c>
+      <c r="C686" t="n">
+        <v>324.05</v>
+      </c>
+      <c r="D686" t="n">
+        <v>335.54</v>
+      </c>
+      <c r="E686" t="n">
+        <v>308.7</v>
+      </c>
+      <c r="F686" t="n">
+        <v>319.17</v>
+      </c>
+      <c r="G686" t="n">
+        <v>317.06</v>
+      </c>
+      <c r="H686" t="n">
+        <v>317.69</v>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -23062,7 +23095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B719"/>
+  <dimension ref="A1:B720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30260,6 +30293,16 @@
       </c>
       <c r="B719" t="n">
         <v>0.76</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -30427,34 +30470,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0441</v>
+        <v>0.0444</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1517</v>
+        <v>0.1528</v>
       </c>
       <c r="I2" t="n">
-        <v>1.202084348710586</v>
+        <v>1.193728834834429</v>
       </c>
       <c r="J2" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="K2" t="n">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02733997672783195</v>
+        <v>0.02704989456827012</v>
       </c>
       <c r="M2" t="n">
-        <v>45.15187445010166</v>
+        <v>45.12875225097487</v>
       </c>
       <c r="N2" t="n">
-        <v>2736.834796478433</v>
+        <v>2733.925396896273</v>
       </c>
       <c r="O2" t="n">
-        <v>52.31476652417014</v>
+        <v>52.28695245370754</v>
       </c>
       <c r="P2" t="n">
-        <v>414.5073799773591</v>
+        <v>414.593590432931</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -30509,34 +30552,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0747</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.093</v>
+        <v>0.0927</v>
       </c>
       <c r="I3" t="n">
-        <v>0.006590997430475928</v>
+        <v>0.007028753593121643</v>
       </c>
       <c r="J3" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="K3" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002289623387248252</v>
+        <v>0.0002611790468550756</v>
       </c>
       <c r="M3" t="n">
-        <v>2.399219056906169</v>
+        <v>2.397627742942815</v>
       </c>
       <c r="N3" t="n">
-        <v>10.19501553008316</v>
+        <v>10.18318777486695</v>
       </c>
       <c r="O3" t="n">
-        <v>3.192963440141958</v>
+        <v>3.191110743121735</v>
       </c>
       <c r="P3" t="n">
-        <v>322.4229780801091</v>
+        <v>322.4184924087738</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -30591,34 +30634,34 @@
         <v>0.11</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0953</v>
+        <v>0.0948</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1359</v>
+        <v>0.1346</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2839738432757924</v>
+        <v>0.2837638009174508</v>
       </c>
       <c r="J4" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="K4" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3038443175018687</v>
+        <v>0.3042295901546547</v>
       </c>
       <c r="M4" t="n">
-        <v>2.207532741761883</v>
+        <v>2.205426264731996</v>
       </c>
       <c r="N4" t="n">
-        <v>9.930269619213938</v>
+        <v>9.916476317668145</v>
       </c>
       <c r="O4" t="n">
-        <v>3.151233031563032</v>
+        <v>3.149043714791547</v>
       </c>
       <c r="P4" t="n">
-        <v>328.7918862986442</v>
+        <v>328.7940385949826</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -30676,31 +30719,31 @@
         <v>0.0549</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0643</v>
+        <v>0.0641</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01850580487187805</v>
+        <v>0.01895365956943255</v>
       </c>
       <c r="J5" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="K5" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0009861762985887701</v>
+        <v>0.001037748218996382</v>
       </c>
       <c r="M5" t="n">
-        <v>3.23848208229048</v>
+        <v>3.236028319731057</v>
       </c>
       <c r="N5" t="n">
-        <v>18.64584210656459</v>
+        <v>18.62181997711584</v>
       </c>
       <c r="O5" t="n">
-        <v>4.318083151881699</v>
+        <v>4.315300682121217</v>
       </c>
       <c r="P5" t="n">
-        <v>306.7306447679599</v>
+        <v>306.726055617308</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30754,31 +30797,31 @@
         <v>0.0488</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0599</v>
+        <v>0.0598</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04981509791048883</v>
+        <v>0.05078359141727389</v>
       </c>
       <c r="J6" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="K6" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005751920771218888</v>
+        <v>0.005992593225065623</v>
       </c>
       <c r="M6" t="n">
-        <v>3.472979521084129</v>
+        <v>3.472985769997208</v>
       </c>
       <c r="N6" t="n">
-        <v>23.05435359532237</v>
+        <v>23.03565335517851</v>
       </c>
       <c r="O6" t="n">
-        <v>4.801494933385057</v>
+        <v>4.799547203140991</v>
       </c>
       <c r="P6" t="n">
-        <v>314.6554890546399</v>
+        <v>314.6455649372144</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30829,34 +30872,34 @@
         <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0473</v>
+        <v>0.0472</v>
       </c>
       <c r="H7" t="n">
         <v>0.0515</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04679526098392094</v>
+        <v>0.04740724330768234</v>
       </c>
       <c r="J7" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="K7" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005912365941269981</v>
+        <v>0.006085612471949942</v>
       </c>
       <c r="M7" t="n">
-        <v>3.194471626173863</v>
+        <v>3.192896789805327</v>
       </c>
       <c r="N7" t="n">
-        <v>19.78865242104933</v>
+        <v>19.76573550256195</v>
       </c>
       <c r="O7" t="n">
-        <v>4.448443820152091</v>
+        <v>4.445867238521856</v>
       </c>
       <c r="P7" t="n">
-        <v>313.8052309093374</v>
+        <v>313.7989599489223</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30913,28 +30956,28 @@
         <v>0.0461</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01558873505084192</v>
+        <v>0.01646575033686314</v>
       </c>
       <c r="J8" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="K8" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007182689609359638</v>
+        <v>0.0008034561540766205</v>
       </c>
       <c r="M8" t="n">
-        <v>3.100360509228189</v>
+        <v>3.100012054575789</v>
       </c>
       <c r="N8" t="n">
-        <v>18.1707020763471</v>
+        <v>18.15643941838214</v>
       </c>
       <c r="O8" t="n">
-        <v>4.262710648911923</v>
+        <v>4.261037364114769</v>
       </c>
       <c r="P8" t="n">
-        <v>314.3808779797687</v>
+        <v>314.3718912363148</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30972,7 +31015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I685"/>
+  <dimension ref="A1:I686"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63167,6 +63210,53 @@
         </is>
       </c>
     </row>
+    <row r="686">
+      <c r="A686" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:14:04+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>-43.58038291068724,172.77715503517396</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>-43.58112372292591,172.7760925721922</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>-43.58176983793095,172.7763383097309</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>-43.58247651196603,172.77636850079082</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>-43.5830604048165,172.77686977624145</t>
+        </is>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>-43.58362070509608,172.7773952730742</t>
+        </is>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>-43.584125909330375,172.7779780461016</t>
+        </is>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
